--- a/sortedByRCGroup.xlsx
+++ b/sortedByRCGroup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mannb\source\repos\recruitment_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA02EE6-C089-4D3D-BB4E-74D356454131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51F1DD7-EFC3-4EA6-8EAF-19AC1CA9CF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RC 1" sheetId="1" r:id="rId1"/>
@@ -1709,12 +1709,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1744,9 +1750,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -7984,33 +7993,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8569,33 +8580,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9154,33 +9167,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10532,33 +10547,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11169,7 +11186,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>

--- a/sortedByRCGroup.xlsx
+++ b/sortedByRCGroup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mannb\source\repos\recruitment_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51F1DD7-EFC3-4EA6-8EAF-19AC1CA9CF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAB3176-4613-41AA-ADEC-4D97BD68064A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" tabRatio="833" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RC 1" sheetId="1" r:id="rId1"/>
@@ -1709,7 +1709,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1719,6 +1719,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1750,7 +1756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1758,6 +1764,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2062,7 +2069,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2126,13 +2135,13 @@
         <v>9714893</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2152,13 +2161,13 @@
         <v>9716003</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>44</v>
+        <v>493</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2178,13 +2187,13 @@
         <v>9716619</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>220</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2230,13 +2239,13 @@
         <v>9721871</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2256,13 +2265,13 @@
         <v>9746216</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2282,13 +2291,13 @@
         <v>9748407</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2308,13 +2317,13 @@
         <v>9757193</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>136</v>
+        <v>462</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2334,13 +2343,13 @@
         <v>9767159</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>151</v>
+        <v>482</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2360,13 +2369,13 @@
         <v>9795708</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>220</v>
+        <v>67</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2386,13 +2395,13 @@
         <v>9842830</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>252</v>
+        <v>489</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2412,13 +2421,13 @@
         <v>9848943</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2438,13 +2447,13 @@
         <v>9876357</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>278</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2464,13 +2473,13 @@
         <v>9878809</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>282</v>
+        <v>501</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2490,13 +2499,13 @@
         <v>9916168</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17">
-        <v>334</v>
+        <v>257</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2516,13 +2525,13 @@
         <v>10080477</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>457</v>
+        <v>334</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2537,55 +2546,55 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19">
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
         <v>10080620</v>
       </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>462</v>
-      </c>
-      <c r="E19">
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3">
+        <v>464</v>
+      </c>
+      <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19">
+      <c r="F19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3">
         <v>3</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20">
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
         <v>10080624</v>
       </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <v>464</v>
-      </c>
-      <c r="E20">
+      <c r="B20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3">
+        <v>484</v>
+      </c>
+      <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="3">
         <v>3</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2594,13 +2603,13 @@
         <v>10080644</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2620,13 +2629,13 @@
         <v>10080645</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
-        <v>474</v>
+        <v>107</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2646,13 +2655,13 @@
         <v>10080658</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2672,13 +2681,13 @@
         <v>10080662</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>484</v>
+        <v>282</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2698,13 +2707,13 @@
         <v>10080706</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25">
-        <v>489</v>
+        <v>49</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2719,29 +2728,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26">
+    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
         <v>10080859</v>
       </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26">
-        <v>493</v>
-      </c>
-      <c r="E26">
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3">
+        <v>457</v>
+      </c>
+      <c r="E26" s="3">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26">
+      <c r="F26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="3">
         <v>3</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2750,13 +2759,13 @@
         <v>10080877</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27">
-        <v>499</v>
+        <v>252</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2776,13 +2785,13 @@
         <v>10080880</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2797,33 +2806,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29">
+    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="3">
         <v>10080881</v>
       </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29">
-        <v>502</v>
-      </c>
-      <c r="E29">
+      <c r="B29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="3">
+        <v>499</v>
+      </c>
+      <c r="E29" s="3">
         <v>1</v>
       </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29">
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3">
         <v>3</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="3" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H29">
+    <sortCondition ref="B2:B29"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2832,7 +2844,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -2867,13 +2881,13 @@
         <v>9714428</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -2893,13 +2907,13 @@
         <v>9714632</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>339</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -2919,13 +2933,13 @@
         <v>9714840</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>395</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -2945,13 +2959,13 @@
         <v>9715402</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -2971,13 +2985,13 @@
         <v>9721486</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -2997,13 +3011,13 @@
         <v>9752038</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>117</v>
+        <v>295</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -3023,13 +3037,13 @@
         <v>9754384</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>124</v>
+        <v>335</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -3049,13 +3063,13 @@
         <v>9754619</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -3075,13 +3089,13 @@
         <v>9756992</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>132</v>
+        <v>298</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -3101,13 +3115,13 @@
         <v>9768458</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -3127,13 +3141,13 @@
         <v>9769435</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -3153,13 +3167,13 @@
         <v>9779511</v>
       </c>
       <c r="B13" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>187</v>
+        <v>360</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -3179,13 +3193,13 @@
         <v>9803426</v>
       </c>
       <c r="B14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -3231,13 +3245,13 @@
         <v>9839039</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>251</v>
+        <v>117</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -3257,13 +3271,13 @@
         <v>9868937</v>
       </c>
       <c r="B17" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17">
-        <v>270</v>
+        <v>157</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -3283,13 +3297,13 @@
         <v>9878484</v>
       </c>
       <c r="B18" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>281</v>
+        <v>402</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -3309,13 +3323,13 @@
         <v>9885678</v>
       </c>
       <c r="B19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -3335,13 +3349,13 @@
         <v>9888492</v>
       </c>
       <c r="B20" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>295</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -3361,13 +3375,13 @@
         <v>9890912</v>
       </c>
       <c r="B21" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -3387,13 +3401,13 @@
         <v>9893458</v>
       </c>
       <c r="B22" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -3413,13 +3427,13 @@
         <v>9916869</v>
       </c>
       <c r="B23" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="E23">
         <v>10</v>
@@ -3439,13 +3453,13 @@
         <v>9923063</v>
       </c>
       <c r="B24" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>339</v>
+        <v>270</v>
       </c>
       <c r="E24">
         <v>10</v>
@@ -3465,13 +3479,13 @@
         <v>9999819</v>
       </c>
       <c r="B25" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="E25">
         <v>10</v>
@@ -3491,13 +3505,13 @@
         <v>10004185</v>
       </c>
       <c r="B26" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26">
-        <v>361</v>
+        <v>281</v>
       </c>
       <c r="E26">
         <v>10</v>
@@ -3517,13 +3531,13 @@
         <v>10063957</v>
       </c>
       <c r="B27" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27">
-        <v>395</v>
+        <v>124</v>
       </c>
       <c r="E27">
         <v>10</v>
@@ -3543,13 +3557,13 @@
         <v>10064222</v>
       </c>
       <c r="B28" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28">
-        <v>398</v>
+        <v>125</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -3569,13 +3583,13 @@
         <v>10076059</v>
       </c>
       <c r="B29" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
       <c r="D29">
-        <v>402</v>
+        <v>286</v>
       </c>
       <c r="E29">
         <v>10</v>
@@ -3591,6 +3605,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H29">
+    <sortCondition ref="B2:B29"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3599,7 +3616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -3634,13 +3653,13 @@
         <v>9714286</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>11</v>
@@ -3660,13 +3679,13 @@
         <v>9714368</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -3686,13 +3705,13 @@
         <v>9714389</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>354</v>
       </c>
       <c r="E4">
         <v>11</v>
@@ -3712,13 +3731,13 @@
         <v>9714570</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>11</v>
@@ -3738,13 +3757,13 @@
         <v>9714596</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="E6">
         <v>11</v>
@@ -3764,13 +3783,13 @@
         <v>9715199</v>
       </c>
       <c r="B7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>11</v>
@@ -3790,13 +3809,13 @@
         <v>9716005</v>
       </c>
       <c r="B8" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>11</v>
@@ -3816,13 +3835,13 @@
         <v>9716152</v>
       </c>
       <c r="B9" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="E9">
         <v>11</v>
@@ -3842,13 +3861,13 @@
         <v>9717055</v>
       </c>
       <c r="B10" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>52</v>
+        <v>382</v>
       </c>
       <c r="E10">
         <v>11</v>
@@ -3868,13 +3887,13 @@
         <v>9726443</v>
       </c>
       <c r="B11" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="E11">
         <v>11</v>
@@ -3894,13 +3913,13 @@
         <v>9737711</v>
       </c>
       <c r="B12" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -3920,13 +3939,13 @@
         <v>9752165</v>
       </c>
       <c r="B13" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E13">
         <v>11</v>
@@ -3946,13 +3965,13 @@
         <v>9752858</v>
       </c>
       <c r="B14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
         <v>305</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>120</v>
       </c>
       <c r="E14">
         <v>11</v>
@@ -3972,13 +3991,13 @@
         <v>9755014</v>
       </c>
       <c r="B15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E15">
         <v>11</v>
@@ -3998,13 +4017,13 @@
         <v>9757355</v>
       </c>
       <c r="B16" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>11</v>
@@ -4024,13 +4043,13 @@
         <v>9767508</v>
       </c>
       <c r="B17" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="E17">
         <v>11</v>
@@ -4050,13 +4069,13 @@
         <v>9773077</v>
       </c>
       <c r="B18" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>168</v>
+        <v>291</v>
       </c>
       <c r="E18">
         <v>11</v>
@@ -4076,13 +4095,13 @@
         <v>9775043</v>
       </c>
       <c r="B19" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="E19">
         <v>11</v>
@@ -4128,13 +4147,13 @@
         <v>9815856</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>11</v>
@@ -4154,13 +4173,13 @@
         <v>9838707</v>
       </c>
       <c r="B22" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
-        <v>249</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>11</v>
@@ -4180,13 +4199,13 @@
         <v>9851158</v>
       </c>
       <c r="B23" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c r="E23">
         <v>11</v>
@@ -4206,13 +4225,13 @@
         <v>9888251</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>291</v>
+        <v>168</v>
       </c>
       <c r="E24">
         <v>11</v>
@@ -4232,13 +4251,13 @@
         <v>9892611</v>
       </c>
       <c r="B25" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25">
-        <v>305</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>11</v>
@@ -4258,13 +4277,13 @@
         <v>9913017</v>
       </c>
       <c r="B26" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26">
-        <v>330</v>
+        <v>46</v>
       </c>
       <c r="E26">
         <v>11</v>
@@ -4284,13 +4303,13 @@
         <v>9987397</v>
       </c>
       <c r="B27" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27">
-        <v>354</v>
+        <v>154</v>
       </c>
       <c r="E27">
         <v>11</v>
@@ -4310,13 +4329,13 @@
         <v>10041974</v>
       </c>
       <c r="B28" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28">
-        <v>382</v>
+        <v>173</v>
       </c>
       <c r="E28">
         <v>11</v>
@@ -4332,6 +4351,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H28">
+    <sortCondition ref="B2:B28"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4340,7 +4362,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -4375,13 +4399,13 @@
         <v>9717848</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>12</v>
@@ -4401,13 +4425,13 @@
         <v>9733900</v>
       </c>
       <c r="B3" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>403</v>
       </c>
       <c r="E3">
         <v>12</v>
@@ -4427,13 +4451,13 @@
         <v>9750052</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>112</v>
+        <v>284</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -4453,13 +4477,13 @@
         <v>9755999</v>
       </c>
       <c r="B5" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>129</v>
+        <v>315</v>
       </c>
       <c r="E5">
         <v>12</v>
@@ -4479,13 +4503,13 @@
         <v>9761689</v>
       </c>
       <c r="B6" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>144</v>
+        <v>265</v>
       </c>
       <c r="E6">
         <v>12</v>
@@ -4505,13 +4529,13 @@
         <v>9765566</v>
       </c>
       <c r="B7" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>147</v>
+        <v>351</v>
       </c>
       <c r="E7">
         <v>12</v>
@@ -4531,13 +4555,13 @@
         <v>9766572</v>
       </c>
       <c r="B8" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="E8">
         <v>12</v>
@@ -4557,13 +4581,13 @@
         <v>9767196</v>
       </c>
       <c r="B9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="E9">
         <v>12</v>
@@ -4583,13 +4607,13 @@
         <v>9776315</v>
       </c>
       <c r="B10" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>176</v>
+        <v>273</v>
       </c>
       <c r="E10">
         <v>12</v>
@@ -4609,13 +4633,13 @@
         <v>9779491</v>
       </c>
       <c r="B11" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="E11">
         <v>12</v>
@@ -4635,13 +4659,13 @@
         <v>9785328</v>
       </c>
       <c r="B12" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>201</v>
+        <v>352</v>
       </c>
       <c r="E12">
         <v>12</v>
@@ -4661,13 +4685,13 @@
         <v>9801522</v>
       </c>
       <c r="B13" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -4687,13 +4711,13 @@
         <v>9818568</v>
       </c>
       <c r="B14" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>235</v>
+        <v>153</v>
       </c>
       <c r="E14">
         <v>12</v>
@@ -4713,13 +4737,13 @@
         <v>9848864</v>
       </c>
       <c r="B15" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="E15">
         <v>12</v>
@@ -4739,13 +4763,13 @@
         <v>9851999</v>
       </c>
       <c r="B16" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="E16">
         <v>12</v>
@@ -4765,13 +4789,13 @@
         <v>9856853</v>
       </c>
       <c r="B17" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="E17">
         <v>12</v>
@@ -4791,13 +4815,13 @@
         <v>9873620</v>
       </c>
       <c r="B18" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>273</v>
+        <v>368</v>
       </c>
       <c r="E18">
         <v>12</v>
@@ -4817,13 +4841,13 @@
         <v>9880233</v>
       </c>
       <c r="B19" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>284</v>
+        <v>150</v>
       </c>
       <c r="E19">
         <v>12</v>
@@ -4843,13 +4867,13 @@
         <v>9893611</v>
       </c>
       <c r="B20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E20">
         <v>12</v>
@@ -4869,13 +4893,13 @@
         <v>9893770</v>
       </c>
       <c r="B21" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>317</v>
+        <v>144</v>
       </c>
       <c r="E21">
         <v>12</v>
@@ -4895,13 +4919,13 @@
         <v>9913221</v>
       </c>
       <c r="B22" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
-        <v>331</v>
+        <v>58</v>
       </c>
       <c r="E22">
         <v>12</v>
@@ -4921,13 +4945,13 @@
         <v>9913296</v>
       </c>
       <c r="B23" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>332</v>
+        <v>176</v>
       </c>
       <c r="E23">
         <v>12</v>
@@ -4947,13 +4971,13 @@
         <v>9920809</v>
       </c>
       <c r="B24" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>336</v>
+        <v>201</v>
       </c>
       <c r="E24">
         <v>12</v>
@@ -4973,13 +4997,13 @@
         <v>9983582</v>
       </c>
       <c r="B25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="E25">
         <v>12</v>
@@ -4999,13 +5023,13 @@
         <v>9983601</v>
       </c>
       <c r="B26" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="E26">
         <v>12</v>
@@ -5025,13 +5049,13 @@
         <v>10016451</v>
       </c>
       <c r="B27" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27">
-        <v>368</v>
+        <v>129</v>
       </c>
       <c r="E27">
         <v>12</v>
@@ -5051,13 +5075,13 @@
         <v>10075454</v>
       </c>
       <c r="B28" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28">
-        <v>401</v>
+        <v>147</v>
       </c>
       <c r="E28">
         <v>12</v>
@@ -5077,13 +5101,13 @@
         <v>10076095</v>
       </c>
       <c r="B29" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
       <c r="D29">
-        <v>403</v>
+        <v>331</v>
       </c>
       <c r="E29">
         <v>12</v>
@@ -5099,6 +5123,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H29">
+    <sortCondition ref="B2:B29"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -5107,7 +5134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -5142,13 +5171,13 @@
         <v>9719188</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>388</v>
       </c>
       <c r="E2">
         <v>13</v>
@@ -5168,13 +5197,13 @@
         <v>9719428</v>
       </c>
       <c r="B3" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>381</v>
       </c>
       <c r="E3">
         <v>13</v>
@@ -5194,13 +5223,13 @@
         <v>9722715</v>
       </c>
       <c r="B4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>13</v>
@@ -5220,13 +5249,13 @@
         <v>9737540</v>
       </c>
       <c r="B5" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>84</v>
+        <v>254</v>
       </c>
       <c r="E5">
         <v>13</v>
@@ -5246,13 +5275,13 @@
         <v>9757135</v>
       </c>
       <c r="B6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="E6">
         <v>13</v>
@@ -5272,13 +5301,13 @@
         <v>9769884</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="E7">
         <v>13</v>
@@ -5298,13 +5327,13 @@
         <v>9778468</v>
       </c>
       <c r="B8" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="E8">
         <v>13</v>
@@ -5324,13 +5353,13 @@
         <v>9785484</v>
       </c>
       <c r="B9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>202</v>
+        <v>300</v>
       </c>
       <c r="E9">
         <v>13</v>
@@ -5350,13 +5379,13 @@
         <v>9818717</v>
       </c>
       <c r="B10" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>237</v>
+        <v>346</v>
       </c>
       <c r="E10">
         <v>13</v>
@@ -5376,13 +5405,13 @@
         <v>9837684</v>
       </c>
       <c r="B11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="E11">
         <v>13</v>
@@ -5402,13 +5431,13 @@
         <v>9838697</v>
       </c>
       <c r="B12" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>248</v>
+        <v>434</v>
       </c>
       <c r="E12">
         <v>13</v>
@@ -5428,13 +5457,13 @@
         <v>9847403</v>
       </c>
       <c r="B13" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="E13">
         <v>13</v>
@@ -5454,13 +5483,13 @@
         <v>9871091</v>
       </c>
       <c r="B14" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>271</v>
+        <v>444</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -5480,13 +5509,13 @@
         <v>9873621</v>
       </c>
       <c r="B15" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="E15">
         <v>13</v>
@@ -5506,13 +5535,13 @@
         <v>9886490</v>
       </c>
       <c r="B16" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="E16">
         <v>13</v>
@@ -5532,13 +5561,13 @@
         <v>9890933</v>
       </c>
       <c r="B17" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17">
-        <v>300</v>
+        <v>372</v>
       </c>
       <c r="E17">
         <v>13</v>
@@ -5558,13 +5587,13 @@
         <v>9890969</v>
       </c>
       <c r="B18" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>302</v>
+        <v>432</v>
       </c>
       <c r="E18">
         <v>13</v>
@@ -5584,13 +5613,13 @@
         <v>9960375</v>
       </c>
       <c r="B19" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>346</v>
+        <v>164</v>
       </c>
       <c r="E19">
         <v>13</v>
@@ -5610,13 +5639,13 @@
         <v>9988413</v>
       </c>
       <c r="B20" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>356</v>
+        <v>248</v>
       </c>
       <c r="E20">
         <v>13</v>
@@ -5636,13 +5665,13 @@
         <v>10021343</v>
       </c>
       <c r="B21" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>372</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <v>13</v>
@@ -5662,13 +5691,13 @@
         <v>10040200</v>
       </c>
       <c r="B22" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
-        <v>381</v>
+        <v>274</v>
       </c>
       <c r="E22">
         <v>13</v>
@@ -5688,13 +5717,13 @@
         <v>10052950</v>
       </c>
       <c r="B23" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="E23">
         <v>13</v>
@@ -5714,13 +5743,13 @@
         <v>10053110</v>
       </c>
       <c r="B24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E24">
         <v>13</v>
@@ -5740,13 +5769,13 @@
         <v>10077947</v>
       </c>
       <c r="B25" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25">
-        <v>432</v>
+        <v>134</v>
       </c>
       <c r="E25">
         <v>13</v>
@@ -5766,13 +5795,13 @@
         <v>10077951</v>
       </c>
       <c r="B26" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26">
-        <v>434</v>
+        <v>271</v>
       </c>
       <c r="E26">
         <v>13</v>
@@ -5792,13 +5821,13 @@
         <v>10077962</v>
       </c>
       <c r="B27" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27">
-        <v>437</v>
+        <v>84</v>
       </c>
       <c r="E27">
         <v>13</v>
@@ -5818,13 +5847,13 @@
         <v>10080084</v>
       </c>
       <c r="B28" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28">
-        <v>444</v>
+        <v>288</v>
       </c>
       <c r="E28">
         <v>13</v>
@@ -5840,6 +5869,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H28">
+    <sortCondition ref="B2:B28"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -5848,7 +5880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -5883,13 +5917,13 @@
         <v>9714255</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="E2">
         <v>14</v>
@@ -5909,13 +5943,13 @@
         <v>9714628</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="E3">
         <v>14</v>
@@ -5935,13 +5969,13 @@
         <v>9736888</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>83</v>
+        <v>410</v>
       </c>
       <c r="E4">
         <v>14</v>
@@ -5961,13 +5995,13 @@
         <v>9746117</v>
       </c>
       <c r="B5" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="E5">
         <v>14</v>
@@ -5987,13 +6021,13 @@
         <v>9747443</v>
       </c>
       <c r="B6" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>105</v>
+        <v>411</v>
       </c>
       <c r="E6">
         <v>14</v>
@@ -6013,13 +6047,13 @@
         <v>9751016</v>
       </c>
       <c r="B7" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>114</v>
+        <v>431</v>
       </c>
       <c r="E7">
         <v>14</v>
@@ -6039,13 +6073,13 @@
         <v>9755123</v>
       </c>
       <c r="B8" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>14</v>
@@ -6091,13 +6125,13 @@
         <v>9760959</v>
       </c>
       <c r="B10" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="E10">
         <v>14</v>
@@ -6117,13 +6151,13 @@
         <v>9765625</v>
       </c>
       <c r="B11" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>148</v>
+        <v>337</v>
       </c>
       <c r="E11">
         <v>14</v>
@@ -6143,13 +6177,13 @@
         <v>9765697</v>
       </c>
       <c r="B12" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>149</v>
+        <v>396</v>
       </c>
       <c r="E12">
         <v>14</v>
@@ -6169,13 +6203,13 @@
         <v>9775486</v>
       </c>
       <c r="B13" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>174</v>
+        <v>313</v>
       </c>
       <c r="E13">
         <v>14</v>
@@ -6195,13 +6229,13 @@
         <v>9776180</v>
       </c>
       <c r="B14" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="E14">
         <v>14</v>
@@ -6221,13 +6255,13 @@
         <v>9783225</v>
       </c>
       <c r="B15" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -6247,13 +6281,13 @@
         <v>9783975</v>
       </c>
       <c r="B16" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="E16">
         <v>14</v>
@@ -6273,13 +6307,13 @@
         <v>9786683</v>
       </c>
       <c r="B17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E17">
         <v>14</v>
@@ -6299,13 +6333,13 @@
         <v>9789219</v>
       </c>
       <c r="B18" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>216</v>
+        <v>427</v>
       </c>
       <c r="E18">
         <v>14</v>
@@ -6325,13 +6359,13 @@
         <v>9885693</v>
       </c>
       <c r="B19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c r="E19">
         <v>14</v>
@@ -6351,13 +6385,13 @@
         <v>9893231</v>
       </c>
       <c r="B20" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>313</v>
+        <v>199</v>
       </c>
       <c r="E20">
         <v>14</v>
@@ -6377,13 +6411,13 @@
         <v>9921310</v>
       </c>
       <c r="B21" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>337</v>
+        <v>105</v>
       </c>
       <c r="E21">
         <v>14</v>
@@ -6403,13 +6437,13 @@
         <v>10064093</v>
       </c>
       <c r="B22" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
-        <v>396</v>
+        <v>287</v>
       </c>
       <c r="E22">
         <v>14</v>
@@ -6429,13 +6463,13 @@
         <v>10077461</v>
       </c>
       <c r="B23" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>410</v>
+        <v>128</v>
       </c>
       <c r="E23">
         <v>14</v>
@@ -6455,13 +6489,13 @@
         <v>10077869</v>
       </c>
       <c r="B24" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>411</v>
+        <v>508</v>
       </c>
       <c r="E24">
         <v>14</v>
@@ -6507,13 +6541,13 @@
         <v>10077933</v>
       </c>
       <c r="B26" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="E26">
         <v>14</v>
@@ -6533,13 +6567,13 @@
         <v>10077941</v>
       </c>
       <c r="B27" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27">
-        <v>431</v>
+        <v>174</v>
       </c>
       <c r="E27">
         <v>14</v>
@@ -6559,13 +6593,13 @@
         <v>10080155</v>
       </c>
       <c r="B28" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28">
-        <v>447</v>
+        <v>175</v>
       </c>
       <c r="E28">
         <v>14</v>
@@ -6585,13 +6619,13 @@
         <v>10080894</v>
       </c>
       <c r="B29" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
       <c r="D29">
-        <v>508</v>
+        <v>28</v>
       </c>
       <c r="E29">
         <v>14</v>
@@ -6607,6 +6641,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H29">
+    <sortCondition ref="B2:B29"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6615,7 +6652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -6650,13 +6689,13 @@
         <v>9717292</v>
       </c>
       <c r="B2" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>442</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -6676,13 +6715,13 @@
         <v>9745498</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -6702,13 +6741,13 @@
         <v>9746464</v>
       </c>
       <c r="B4" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>103</v>
+        <v>266</v>
       </c>
       <c r="E4">
         <v>15</v>
@@ -6728,13 +6767,13 @@
         <v>9746565</v>
       </c>
       <c r="B5" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -6754,13 +6793,13 @@
         <v>9747649</v>
       </c>
       <c r="B6" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E6">
         <v>15</v>
@@ -6780,13 +6819,13 @@
         <v>9748789</v>
       </c>
       <c r="B7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>108</v>
+        <v>307</v>
       </c>
       <c r="E7">
         <v>15</v>
@@ -6806,13 +6845,13 @@
         <v>9749220</v>
       </c>
       <c r="B8" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>109</v>
+        <v>433</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -6832,13 +6871,13 @@
         <v>9751212</v>
       </c>
       <c r="B9" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>115</v>
+        <v>325</v>
       </c>
       <c r="E9">
         <v>15</v>
@@ -6858,13 +6897,13 @@
         <v>9780448</v>
       </c>
       <c r="B10" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>188</v>
+        <v>303</v>
       </c>
       <c r="E10">
         <v>15</v>
@@ -6884,13 +6923,13 @@
         <v>9787773</v>
       </c>
       <c r="B11" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>210</v>
+        <v>425</v>
       </c>
       <c r="E11">
         <v>15</v>
@@ -6910,13 +6949,13 @@
         <v>9800521</v>
       </c>
       <c r="B12" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>223</v>
+        <v>390</v>
       </c>
       <c r="E12">
         <v>15</v>
@@ -6962,13 +7001,13 @@
         <v>9849044</v>
       </c>
       <c r="B14" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="E14">
         <v>15</v>
@@ -6988,13 +7027,13 @@
         <v>9858906</v>
       </c>
       <c r="B15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E15">
         <v>15</v>
@@ -7014,13 +7053,13 @@
         <v>9876964</v>
       </c>
       <c r="B16" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -7040,13 +7079,13 @@
         <v>9889746</v>
       </c>
       <c r="B17" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17">
-        <v>297</v>
+        <v>108</v>
       </c>
       <c r="E17">
         <v>15</v>
@@ -7066,13 +7105,13 @@
         <v>9891040</v>
       </c>
       <c r="B18" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>303</v>
+        <v>109</v>
       </c>
       <c r="E18">
         <v>15</v>
@@ -7092,13 +7131,13 @@
         <v>9893061</v>
       </c>
       <c r="B19" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="E19">
         <v>15</v>
@@ -7118,13 +7157,13 @@
         <v>9897731</v>
       </c>
       <c r="B20" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="E20">
         <v>15</v>
@@ -7144,13 +7183,13 @@
         <v>9914974</v>
       </c>
       <c r="B21" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>333</v>
+        <v>103</v>
       </c>
       <c r="E21">
         <v>15</v>
@@ -7170,13 +7209,13 @@
         <v>9921357</v>
       </c>
       <c r="B22" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
-        <v>338</v>
+        <v>106</v>
       </c>
       <c r="E22">
         <v>15</v>
@@ -7196,13 +7235,13 @@
         <v>10053858</v>
       </c>
       <c r="B23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="E23">
         <v>15</v>
@@ -7222,13 +7261,13 @@
         <v>10077925</v>
       </c>
       <c r="B24" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>425</v>
+        <v>104</v>
       </c>
       <c r="E24">
         <v>15</v>
@@ -7248,13 +7287,13 @@
         <v>10077949</v>
       </c>
       <c r="B25" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25">
-        <v>433</v>
+        <v>53</v>
       </c>
       <c r="E25">
         <v>15</v>
@@ -7274,13 +7313,13 @@
         <v>10079714</v>
       </c>
       <c r="B26" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26">
-        <v>442</v>
+        <v>93</v>
       </c>
       <c r="E26">
         <v>15</v>
@@ -7296,6 +7335,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H26">
+    <sortCondition ref="B2:B26"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -7304,7 +7346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -7339,13 +7383,13 @@
         <v>9714333</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="E2">
         <v>16</v>
@@ -7365,13 +7409,13 @@
         <v>9752218</v>
       </c>
       <c r="B3" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>119</v>
+        <v>363</v>
       </c>
       <c r="E3">
         <v>16</v>
@@ -7391,13 +7435,13 @@
         <v>9757171</v>
       </c>
       <c r="B4" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>135</v>
+        <v>357</v>
       </c>
       <c r="E4">
         <v>16</v>
@@ -7417,13 +7461,13 @@
         <v>9759560</v>
       </c>
       <c r="B5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
         <v>436</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>140</v>
       </c>
       <c r="E5">
         <v>16</v>
@@ -7443,13 +7487,13 @@
         <v>9769084</v>
       </c>
       <c r="B6" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>161</v>
+        <v>546</v>
       </c>
       <c r="E6">
         <v>16</v>
@@ -7469,13 +7513,13 @@
         <v>9814342</v>
       </c>
       <c r="B7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>229</v>
+        <v>324</v>
       </c>
       <c r="E7">
         <v>16</v>
@@ -7495,13 +7539,13 @@
         <v>9895786</v>
       </c>
       <c r="B8" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>324</v>
+        <v>409</v>
       </c>
       <c r="E8">
         <v>16</v>
@@ -7521,13 +7565,13 @@
         <v>9952595</v>
       </c>
       <c r="B9" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>342</v>
+        <v>533</v>
       </c>
       <c r="E9">
         <v>16</v>
@@ -7547,13 +7591,13 @@
         <v>9988751</v>
       </c>
       <c r="B10" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>357</v>
+        <v>428</v>
       </c>
       <c r="E10">
         <v>16</v>
@@ -7573,13 +7617,13 @@
         <v>10007405</v>
       </c>
       <c r="B11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="E11">
         <v>16</v>
@@ -7599,13 +7643,13 @@
         <v>10031183</v>
       </c>
       <c r="B12" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="E12">
         <v>16</v>
@@ -7625,13 +7669,13 @@
         <v>10076778</v>
       </c>
       <c r="B13" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>404</v>
+        <v>475</v>
       </c>
       <c r="E13">
         <v>16</v>
@@ -7651,13 +7695,13 @@
         <v>10076863</v>
       </c>
       <c r="B14" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>406</v>
+        <v>161</v>
       </c>
       <c r="E14">
         <v>16</v>
@@ -7677,13 +7721,13 @@
         <v>10077258</v>
       </c>
       <c r="B15" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="E15">
         <v>16</v>
@@ -7703,13 +7747,13 @@
         <v>10077907</v>
       </c>
       <c r="B16" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>417</v>
+        <v>135</v>
       </c>
       <c r="E16">
         <v>16</v>
@@ -7729,13 +7773,13 @@
         <v>10077911</v>
       </c>
       <c r="B17" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17">
-        <v>420</v>
+        <v>342</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -7755,13 +7799,13 @@
         <v>10077935</v>
       </c>
       <c r="B18" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="E18">
         <v>16</v>
@@ -7781,13 +7825,13 @@
         <v>10077961</v>
       </c>
       <c r="B19" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>436</v>
+        <v>229</v>
       </c>
       <c r="E19">
         <v>16</v>
@@ -7807,13 +7851,13 @@
         <v>10080079</v>
       </c>
       <c r="B20" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>443</v>
+        <v>554</v>
       </c>
       <c r="E20">
         <v>16</v>
@@ -7833,13 +7877,13 @@
         <v>10080646</v>
       </c>
       <c r="B21" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>475</v>
+        <v>417</v>
       </c>
       <c r="E21">
         <v>16</v>
@@ -7859,13 +7903,13 @@
         <v>10086603</v>
       </c>
       <c r="B22" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
-        <v>533</v>
+        <v>406</v>
       </c>
       <c r="E22">
         <v>16</v>
@@ -7885,13 +7929,13 @@
         <v>10086958</v>
       </c>
       <c r="B23" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E23">
         <v>16</v>
@@ -7911,13 +7955,13 @@
         <v>10086959</v>
       </c>
       <c r="B24" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>547</v>
+        <v>140</v>
       </c>
       <c r="E24">
         <v>16</v>
@@ -7937,13 +7981,13 @@
         <v>10086983</v>
       </c>
       <c r="B25" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25">
-        <v>550</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>16</v>
@@ -7963,13 +8007,13 @@
         <v>10087600</v>
       </c>
       <c r="B26" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="E26">
         <v>16</v>
@@ -7985,6 +8029,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H26">
+    <sortCondition ref="B2:B26"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -7994,7 +8041,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="B2" sqref="B2:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8030,13 +8077,13 @@
         <v>9714229</v>
       </c>
       <c r="B2" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="E2">
         <v>17</v>
@@ -8056,13 +8103,13 @@
         <v>9714451</v>
       </c>
       <c r="B3" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>323</v>
       </c>
       <c r="E3">
         <v>17</v>
@@ -8082,13 +8129,13 @@
         <v>9714973</v>
       </c>
       <c r="B4" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>421</v>
       </c>
       <c r="E4">
         <v>17</v>
@@ -8108,13 +8155,13 @@
         <v>9716625</v>
       </c>
       <c r="B5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>17</v>
@@ -8134,13 +8181,13 @@
         <v>9717471</v>
       </c>
       <c r="B6" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>539</v>
       </c>
       <c r="E6">
         <v>17</v>
@@ -8160,13 +8207,13 @@
         <v>9746112</v>
       </c>
       <c r="B7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>17</v>
@@ -8186,13 +8233,13 @@
         <v>9768672</v>
       </c>
       <c r="B8" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>159</v>
+        <v>386</v>
       </c>
       <c r="E8">
         <v>17</v>
@@ -8212,13 +8259,13 @@
         <v>9874396</v>
       </c>
       <c r="B9" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>275</v>
+        <v>412</v>
       </c>
       <c r="E9">
         <v>17</v>
@@ -8238,13 +8285,13 @@
         <v>9894783</v>
       </c>
       <c r="B10" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>321</v>
+        <v>548</v>
       </c>
       <c r="E10">
         <v>17</v>
@@ -8264,13 +8311,13 @@
         <v>9895287</v>
       </c>
       <c r="B11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="E11">
         <v>17</v>
@@ -8290,13 +8337,13 @@
         <v>9907292</v>
       </c>
       <c r="B12" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>328</v>
+        <v>513</v>
       </c>
       <c r="E12">
         <v>17</v>
@@ -8316,13 +8363,13 @@
         <v>9986973</v>
       </c>
       <c r="B13" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E13">
         <v>17</v>
@@ -8342,13 +8389,13 @@
         <v>9989290</v>
       </c>
       <c r="B14" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>358</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>17</v>
@@ -8368,13 +8415,13 @@
         <v>10050454</v>
       </c>
       <c r="B15" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="E15">
         <v>17</v>
@@ -8394,13 +8441,13 @@
         <v>10077882</v>
       </c>
       <c r="B16" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>412</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>17</v>
@@ -8420,13 +8467,13 @@
         <v>10077914</v>
       </c>
       <c r="B17" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17">
-        <v>421</v>
+        <v>159</v>
       </c>
       <c r="E17">
         <v>17</v>
@@ -8446,13 +8493,13 @@
         <v>10077965</v>
       </c>
       <c r="B18" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>439</v>
+        <v>353</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -8472,13 +8519,13 @@
         <v>10080635</v>
       </c>
       <c r="B19" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>469</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>17</v>
@@ -8498,13 +8545,13 @@
         <v>10081174</v>
       </c>
       <c r="B20" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>513</v>
+        <v>328</v>
       </c>
       <c r="E20">
         <v>17</v>
@@ -8524,13 +8571,13 @@
         <v>10086864</v>
       </c>
       <c r="B21" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>539</v>
+        <v>321</v>
       </c>
       <c r="E21">
         <v>17</v>
@@ -8550,13 +8597,13 @@
         <v>10086962</v>
       </c>
       <c r="B22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
-        <v>548</v>
+        <v>469</v>
       </c>
       <c r="E22">
         <v>17</v>
@@ -8572,6 +8619,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H22">
+    <sortCondition ref="B2:B22"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -8581,7 +8631,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1"/>
+      <selection activeCell="B2" sqref="B2:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8617,13 +8667,13 @@
         <v>9714426</v>
       </c>
       <c r="B2" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>514</v>
       </c>
       <c r="E2">
         <v>18</v>
@@ -8643,13 +8693,13 @@
         <v>9714510</v>
       </c>
       <c r="B3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>18</v>
@@ -8669,13 +8719,13 @@
         <v>9714626</v>
       </c>
       <c r="B4" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>312</v>
       </c>
       <c r="E4">
         <v>18</v>
@@ -8695,13 +8745,13 @@
         <v>9731036</v>
       </c>
       <c r="B5" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="E5">
         <v>18</v>
@@ -8721,13 +8771,13 @@
         <v>9783810</v>
       </c>
       <c r="B6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="E6">
         <v>18</v>
@@ -8747,13 +8797,13 @@
         <v>9786234</v>
       </c>
       <c r="B7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>208</v>
+        <v>440</v>
       </c>
       <c r="E7">
         <v>18</v>
@@ -8773,13 +8823,13 @@
         <v>9888451</v>
       </c>
       <c r="B8" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>294</v>
+        <v>416</v>
       </c>
       <c r="E8">
         <v>18</v>
@@ -8799,13 +8849,13 @@
         <v>9893202</v>
       </c>
       <c r="B9" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>312</v>
+        <v>544</v>
       </c>
       <c r="E9">
         <v>18</v>
@@ -8825,13 +8875,13 @@
         <v>10048134</v>
       </c>
       <c r="B10" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>383</v>
+        <v>511</v>
       </c>
       <c r="E10">
         <v>18</v>
@@ -8851,13 +8901,13 @@
         <v>10058636</v>
       </c>
       <c r="B11" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>393</v>
+        <v>541</v>
       </c>
       <c r="E11">
         <v>18</v>
@@ -8903,13 +8953,13 @@
         <v>10077902</v>
       </c>
       <c r="B13" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>416</v>
+        <v>515</v>
       </c>
       <c r="E13">
         <v>18</v>
@@ -8929,13 +8979,13 @@
         <v>10077967</v>
       </c>
       <c r="B14" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>440</v>
+        <v>553</v>
       </c>
       <c r="E14">
         <v>18</v>
@@ -8955,13 +9005,13 @@
         <v>10078447</v>
       </c>
       <c r="B15" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>441</v>
+        <v>537</v>
       </c>
       <c r="E15">
         <v>18</v>
@@ -8981,13 +9031,13 @@
         <v>10080899</v>
       </c>
       <c r="B16" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>511</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>18</v>
@@ -9007,13 +9057,13 @@
         <v>10081193</v>
       </c>
       <c r="B17" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17">
-        <v>514</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>18</v>
@@ -9033,13 +9083,13 @@
         <v>10081360</v>
       </c>
       <c r="B18" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>515</v>
+        <v>441</v>
       </c>
       <c r="E18">
         <v>18</v>
@@ -9059,13 +9109,13 @@
         <v>10086696</v>
       </c>
       <c r="B19" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>537</v>
+        <v>383</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -9085,13 +9135,13 @@
         <v>10086899</v>
       </c>
       <c r="B20" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>541</v>
+        <v>198</v>
       </c>
       <c r="E20">
         <v>18</v>
@@ -9111,13 +9161,13 @@
         <v>10086955</v>
       </c>
       <c r="B21" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>544</v>
+        <v>393</v>
       </c>
       <c r="E21">
         <v>18</v>
@@ -9137,13 +9187,13 @@
         <v>10087395</v>
       </c>
       <c r="B22" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
-        <v>553</v>
+        <v>294</v>
       </c>
       <c r="E22">
         <v>18</v>
@@ -9159,6 +9209,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H22">
+    <sortCondition ref="B2:B22"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -9168,7 +9221,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1"/>
+      <selection activeCell="B2" sqref="B2:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9204,13 +9257,13 @@
         <v>9714312</v>
       </c>
       <c r="B2" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="E2">
         <v>19</v>
@@ -9230,13 +9283,13 @@
         <v>9714762</v>
       </c>
       <c r="B3" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>519</v>
       </c>
       <c r="E3">
         <v>19</v>
@@ -9256,13 +9309,13 @@
         <v>9722804</v>
       </c>
       <c r="B4" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>481</v>
       </c>
       <c r="E4">
         <v>19</v>
@@ -9282,13 +9335,13 @@
         <v>9740648</v>
       </c>
       <c r="B5" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>88</v>
+        <v>451</v>
       </c>
       <c r="E5">
         <v>19</v>
@@ -9308,13 +9361,13 @@
         <v>9757014</v>
       </c>
       <c r="B6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>19</v>
@@ -9334,13 +9387,13 @@
         <v>9785943</v>
       </c>
       <c r="B7" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>206</v>
+        <v>538</v>
       </c>
       <c r="E7">
         <v>19</v>
@@ -9360,13 +9413,13 @@
         <v>9788574</v>
       </c>
       <c r="B8" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>212</v>
+        <v>424</v>
       </c>
       <c r="E8">
         <v>19</v>
@@ -9386,13 +9439,13 @@
         <v>9797160</v>
       </c>
       <c r="B9" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="E9">
         <v>19</v>
@@ -9412,13 +9465,13 @@
         <v>9829059</v>
       </c>
       <c r="B10" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>244</v>
+        <v>520</v>
       </c>
       <c r="E10">
         <v>19</v>
@@ -9438,13 +9491,13 @@
         <v>9890952</v>
       </c>
       <c r="B11" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>301</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>19</v>
@@ -9464,13 +9517,13 @@
         <v>10022039</v>
       </c>
       <c r="B12" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>376</v>
+        <v>478</v>
       </c>
       <c r="E12">
         <v>19</v>
@@ -9490,13 +9543,13 @@
         <v>10054595</v>
       </c>
       <c r="B13" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>392</v>
+        <v>492</v>
       </c>
       <c r="E13">
         <v>19</v>
@@ -9516,13 +9569,13 @@
         <v>10065175</v>
       </c>
       <c r="B14" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>399</v>
+        <v>244</v>
       </c>
       <c r="E14">
         <v>19</v>
@@ -9542,13 +9595,13 @@
         <v>10077922</v>
       </c>
       <c r="B15" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>424</v>
+        <v>552</v>
       </c>
       <c r="E15">
         <v>19</v>
@@ -9568,13 +9621,13 @@
         <v>10080372</v>
       </c>
       <c r="B16" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>451</v>
+        <v>221</v>
       </c>
       <c r="E16">
         <v>19</v>
@@ -9620,13 +9673,13 @@
         <v>10080651</v>
       </c>
       <c r="B18" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>478</v>
+        <v>212</v>
       </c>
       <c r="E18">
         <v>19</v>
@@ -9646,13 +9699,13 @@
         <v>10080656</v>
       </c>
       <c r="B19" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>481</v>
+        <v>392</v>
       </c>
       <c r="E19">
         <v>19</v>
@@ -9672,13 +9725,13 @@
         <v>10080735</v>
       </c>
       <c r="B20" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>492</v>
+        <v>206</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -9698,13 +9751,13 @@
         <v>10081958</v>
       </c>
       <c r="B21" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>519</v>
+        <v>399</v>
       </c>
       <c r="E21">
         <v>19</v>
@@ -9724,13 +9777,13 @@
         <v>10082008</v>
       </c>
       <c r="B22" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
-        <v>520</v>
+        <v>70</v>
       </c>
       <c r="E22">
         <v>19</v>
@@ -9750,13 +9803,13 @@
         <v>10086835</v>
       </c>
       <c r="B23" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>538</v>
+        <v>376</v>
       </c>
       <c r="E23">
         <v>19</v>
@@ -9776,13 +9829,13 @@
         <v>10087251</v>
       </c>
       <c r="B24" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>552</v>
+        <v>88</v>
       </c>
       <c r="E24">
         <v>19</v>
@@ -9798,6 +9851,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H24">
+    <sortCondition ref="B2:B24"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -9806,9 +9862,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="33.765625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
@@ -9836,29 +9897,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
         <v>9714520</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>23</v>
-      </c>
-      <c r="E2">
+      <c r="B2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3">
+        <v>479</v>
+      </c>
+      <c r="E2" s="3">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9867,13 +9928,13 @@
         <v>9716830</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -9893,13 +9954,13 @@
         <v>9720542</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>472</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -9914,29 +9975,29 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
         <v>9729910</v>
       </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>78</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>468</v>
+      </c>
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9971,13 +10032,13 @@
         <v>9756661</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -9997,13 +10058,13 @@
         <v>9764701</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>146</v>
+        <v>450</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -10023,13 +10084,13 @@
         <v>9779284</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>184</v>
+        <v>407</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -10049,13 +10110,13 @@
         <v>9782678</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>194</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -10101,13 +10162,13 @@
         <v>9816148</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -10127,13 +10188,13 @@
         <v>9848308</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>255</v>
+        <v>130</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -10179,13 +10240,13 @@
         <v>9891869</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>304</v>
+        <v>460</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -10200,29 +10261,29 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16">
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
         <v>10076900</v>
       </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16">
-        <v>407</v>
-      </c>
-      <c r="E16">
+      <c r="B16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3">
+        <v>485</v>
+      </c>
+      <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="3">
         <v>4</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -10231,13 +10292,13 @@
         <v>10080245</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -10257,13 +10318,13 @@
         <v>10080264</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -10278,29 +10339,29 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19">
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
         <v>10080301</v>
       </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>450</v>
-      </c>
-      <c r="E19">
+      <c r="B19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3">
+        <v>466</v>
+      </c>
+      <c r="E19" s="3">
         <v>2</v>
       </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19">
+      <c r="F19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3">
         <v>4</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -10309,13 +10370,13 @@
         <v>10080507</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>458</v>
+        <v>304</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -10335,13 +10396,13 @@
         <v>10080615</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -10361,13 +10422,13 @@
         <v>10080626</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
-        <v>465</v>
+        <v>64</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -10387,13 +10448,13 @@
         <v>10080630</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>466</v>
+        <v>232</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -10408,81 +10469,81 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24">
+    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
         <v>10080632</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3">
+        <v>78</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="3">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
+        <v>10080633</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="3">
+        <v>458</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="3">
+        <v>4</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
+        <v>10080642</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24">
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3">
         <v>467</v>
       </c>
-      <c r="E24">
+      <c r="E26" s="3">
         <v>2</v>
       </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24">
+      <c r="F26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="3">
         <v>4</v>
       </c>
-      <c r="H24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>10080633</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>468</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-      <c r="H25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>10080642</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26">
-        <v>472</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26">
-        <v>4</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="H26" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -10491,13 +10552,13 @@
         <v>10080652</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27">
-        <v>479</v>
+        <v>23</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -10517,13 +10578,13 @@
         <v>10080664</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28">
-        <v>485</v>
+        <v>184</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -10539,6 +10600,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H28">
+    <sortCondition ref="B2:B28"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -10548,7 +10612,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="B2" sqref="B2:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -10584,13 +10648,13 @@
         <v>9714379</v>
       </c>
       <c r="B2" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>355</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -10610,13 +10674,13 @@
         <v>9714790</v>
       </c>
       <c r="B3" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>389</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -10636,13 +10700,13 @@
         <v>9715919</v>
       </c>
       <c r="B4" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>43</v>
+        <v>239</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -10662,13 +10726,13 @@
         <v>9717320</v>
       </c>
       <c r="B5" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>494</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -10688,13 +10752,13 @@
         <v>9726310</v>
       </c>
       <c r="B6" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -10714,13 +10778,13 @@
         <v>9746122</v>
       </c>
       <c r="B7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
         <v>532</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>97</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -10740,13 +10804,13 @@
         <v>9759170</v>
       </c>
       <c r="B8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -10766,13 +10830,13 @@
         <v>9768484</v>
       </c>
       <c r="B9" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -10792,13 +10856,13 @@
         <v>9774991</v>
       </c>
       <c r="B10" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>172</v>
+        <v>480</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -10818,13 +10882,13 @@
         <v>9782467</v>
       </c>
       <c r="B11" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>192</v>
+        <v>343</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -10844,13 +10908,13 @@
         <v>9820280</v>
       </c>
       <c r="B12" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>239</v>
+        <v>139</v>
       </c>
       <c r="E12">
         <v>20</v>
@@ -10870,13 +10934,13 @@
         <v>9831819</v>
       </c>
       <c r="B13" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>246</v>
+        <v>54</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -10896,13 +10960,13 @@
         <v>9849506</v>
       </c>
       <c r="B14" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>259</v>
+        <v>97</v>
       </c>
       <c r="E14">
         <v>20</v>
@@ -10922,13 +10986,13 @@
         <v>9898166</v>
       </c>
       <c r="B15" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>326</v>
+        <v>470</v>
       </c>
       <c r="E15">
         <v>20</v>
@@ -10948,13 +11012,13 @@
         <v>9953604</v>
       </c>
       <c r="B16" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>343</v>
+        <v>259</v>
       </c>
       <c r="E16">
         <v>20</v>
@@ -10974,13 +11038,13 @@
         <v>9987985</v>
       </c>
       <c r="B17" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17">
-        <v>355</v>
+        <v>192</v>
       </c>
       <c r="E17">
         <v>20</v>
@@ -11000,13 +11064,13 @@
         <v>10053144</v>
       </c>
       <c r="B18" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>389</v>
+        <v>172</v>
       </c>
       <c r="E18">
         <v>20</v>
@@ -11026,13 +11090,13 @@
         <v>10080468</v>
       </c>
       <c r="B19" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>454</v>
+        <v>326</v>
       </c>
       <c r="E19">
         <v>20</v>
@@ -11052,13 +11116,13 @@
         <v>10080636</v>
       </c>
       <c r="B20" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>470</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>20</v>
@@ -11078,13 +11142,13 @@
         <v>10080654</v>
       </c>
       <c r="B21" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -11104,13 +11168,13 @@
         <v>10080665</v>
       </c>
       <c r="B22" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -11130,13 +11194,13 @@
         <v>10080861</v>
       </c>
       <c r="B23" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>494</v>
+        <v>158</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -11156,13 +11220,13 @@
         <v>10086347</v>
       </c>
       <c r="B24" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>532</v>
+        <v>31</v>
       </c>
       <c r="E24">
         <v>20</v>
@@ -11178,6 +11242,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H24">
+    <sortCondition ref="B2:B24"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -11187,10 +11254,13 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="40.84375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
@@ -11223,13 +11293,13 @@
         <v>9714478</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>496</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -11249,13 +11319,13 @@
         <v>9714506</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>490</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -11270,29 +11340,29 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
         <v>9716618</v>
       </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>48</v>
-      </c>
-      <c r="E4">
+      <c r="B4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>145</v>
+      </c>
+      <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -11301,13 +11371,13 @@
         <v>9719844</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -11327,13 +11397,13 @@
         <v>9729304</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -11353,13 +11423,13 @@
         <v>9746270</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -11379,13 +11449,13 @@
         <v>9746308</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>101</v>
+        <v>362</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -11400,55 +11470,55 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
         <v>9755008</v>
       </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>126</v>
-      </c>
-      <c r="E9">
+      <c r="B9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3">
+        <v>495</v>
+      </c>
+      <c r="E9" s="3">
         <v>3</v>
       </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3">
         <v>5</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
         <v>9763123</v>
       </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>145</v>
-      </c>
-      <c r="E10">
+      <c r="B10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>506</v>
+      </c>
+      <c r="E10" s="3">
         <v>3</v>
       </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3">
         <v>5</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -11457,13 +11527,13 @@
         <v>9786093</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -11483,13 +11553,13 @@
         <v>9802607</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -11509,13 +11579,13 @@
         <v>9859017</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>268</v>
+        <v>500</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -11530,29 +11600,29 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14">
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
         <v>9876572</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
         <v>279</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>3</v>
       </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
         <v>5</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -11561,13 +11631,13 @@
         <v>9981004</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>347</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -11587,13 +11657,13 @@
         <v>10005779</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>362</v>
+        <v>99</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -11613,13 +11683,13 @@
         <v>10015052</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17">
-        <v>367</v>
+        <v>207</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -11639,13 +11709,13 @@
         <v>10080689</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>488</v>
+        <v>347</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -11660,55 +11730,55 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19">
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
         <v>10080729</v>
       </c>
-      <c r="B19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>490</v>
-      </c>
-      <c r="E19">
+      <c r="B19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3">
+        <v>505</v>
+      </c>
+      <c r="E19" s="3">
         <v>3</v>
       </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19">
+      <c r="F19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3">
         <v>5</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20">
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
         <v>10080734</v>
       </c>
-      <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <v>491</v>
-      </c>
-      <c r="E20">
+      <c r="B20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3">
+        <v>367</v>
+      </c>
+      <c r="E20" s="3">
         <v>3</v>
       </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="3">
         <v>5</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -11717,13 +11787,13 @@
         <v>10080872</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -11743,13 +11813,13 @@
         <v>10080873</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
-        <v>496</v>
+        <v>101</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -11769,13 +11839,13 @@
         <v>10080875</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -11795,13 +11865,13 @@
         <v>10080879</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>500</v>
+        <v>268</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -11821,13 +11891,13 @@
         <v>10080884</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -11842,55 +11912,55 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26">
+    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
         <v>10080888</v>
       </c>
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26">
-        <v>505</v>
-      </c>
-      <c r="E26">
+      <c r="B26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3">
+        <v>504</v>
+      </c>
+      <c r="E26" s="3">
         <v>3</v>
       </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26">
+      <c r="F26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="3">
         <v>5</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27">
+    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="3">
         <v>10080889</v>
       </c>
-      <c r="B27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <v>506</v>
-      </c>
-      <c r="E27">
+      <c r="B27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3">
+        <v>497</v>
+      </c>
+      <c r="E27" s="3">
         <v>3</v>
       </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27">
+      <c r="F27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="3">
         <v>5</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -11899,13 +11969,13 @@
         <v>10081109</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28">
-        <v>512</v>
+        <v>48</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -11921,6 +11991,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H28">
+    <sortCondition ref="B2:B28"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -11929,9 +12002,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="28.4609375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
@@ -11964,13 +12042,13 @@
         <v>9715175</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -11990,13 +12068,13 @@
         <v>9729001</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>76</v>
+        <v>507</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -12011,29 +12089,29 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
         <v>9749964</v>
       </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>111</v>
-      </c>
-      <c r="E4">
+      <c r="B4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>498</v>
+      </c>
+      <c r="E4" s="3">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -12042,13 +12120,13 @@
         <v>9753310</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>121</v>
+        <v>522</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -12063,29 +12141,29 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
         <v>9753314</v>
       </c>
-      <c r="B6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>122</v>
-      </c>
-      <c r="E6">
+      <c r="B6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>510</v>
+      </c>
+      <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3">
         <v>6</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -12120,13 +12198,13 @@
         <v>9785715</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>205</v>
+        <v>517</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -12146,13 +12224,13 @@
         <v>9788324</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>211</v>
+        <v>530</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -12172,13 +12250,13 @@
         <v>9855506</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>264</v>
+        <v>121</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -12193,29 +12271,29 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
         <v>9879005</v>
       </c>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>283</v>
-      </c>
-      <c r="E11">
+      <c r="B11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3">
+        <v>543</v>
+      </c>
+      <c r="E11" s="3">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3">
         <v>6</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -12224,13 +12302,13 @@
         <v>9955157</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -12271,55 +12349,55 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14">
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
         <v>10018181</v>
       </c>
-      <c r="B14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>370</v>
-      </c>
-      <c r="E14">
+      <c r="B14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>205</v>
+      </c>
+      <c r="E14" s="3">
         <v>4</v>
       </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
         <v>6</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
         <v>10028384</v>
       </c>
-      <c r="B15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>377</v>
-      </c>
-      <c r="E15">
+      <c r="B15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>534</v>
+      </c>
+      <c r="E15" s="3">
         <v>4</v>
       </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3">
         <v>6</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -12328,13 +12406,13 @@
         <v>10080876</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>498</v>
+        <v>122</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -12354,13 +12432,13 @@
         <v>10080890</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -12380,13 +12458,13 @@
         <v>10080895</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -12406,13 +12484,13 @@
         <v>10080897</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>510</v>
+        <v>76</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -12432,13 +12510,13 @@
         <v>10081654</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>517</v>
+        <v>264</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -12458,13 +12536,13 @@
         <v>10082078</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>521</v>
+        <v>377</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -12479,29 +12557,29 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22">
+    <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
         <v>10082170</v>
       </c>
-      <c r="B22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22">
-        <v>522</v>
-      </c>
-      <c r="E22">
+      <c r="B22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3">
+        <v>344</v>
+      </c>
+      <c r="E22" s="3">
         <v>4</v>
       </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22">
+      <c r="F22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3">
         <v>6</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -12510,13 +12588,13 @@
         <v>10082774</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>523</v>
+        <v>38</v>
       </c>
       <c r="E23">
         <v>4</v>
@@ -12536,13 +12614,13 @@
         <v>10082814</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -12562,13 +12640,13 @@
         <v>10082817</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -12588,13 +12666,13 @@
         <v>10084837</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -12614,13 +12692,13 @@
         <v>10086144</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27">
-        <v>530</v>
+        <v>283</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -12635,29 +12713,29 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28">
+    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="3">
         <v>10086606</v>
       </c>
-      <c r="B28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28">
-        <v>534</v>
-      </c>
-      <c r="E28">
+      <c r="B28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="3">
+        <v>524</v>
+      </c>
+      <c r="E28" s="3">
         <v>4</v>
       </c>
-      <c r="F28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28">
+      <c r="F28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="3">
         <v>6</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -12666,13 +12744,13 @@
         <v>10086951</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
       <c r="D29">
-        <v>543</v>
+        <v>211</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -12688,6 +12766,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H29">
+    <sortCondition ref="B2:B29"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -12696,7 +12777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -12731,13 +12814,13 @@
         <v>9714384</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -12757,13 +12840,13 @@
         <v>9714624</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>400</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -12783,13 +12866,13 @@
         <v>9714792</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -12809,13 +12892,13 @@
         <v>9727644</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -12835,13 +12918,13 @@
         <v>9758796</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>138</v>
+        <v>348</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -12861,13 +12944,13 @@
         <v>9760659</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>142</v>
+        <v>531</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -12887,13 +12970,13 @@
         <v>9767612</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>156</v>
+        <v>384</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -12913,13 +12996,13 @@
         <v>9769497</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -12939,13 +13022,13 @@
         <v>9774560</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>170</v>
+        <v>391</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -12965,13 +13048,13 @@
         <v>9788921</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -12991,13 +13074,13 @@
         <v>9816127</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>231</v>
+        <v>526</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -13017,13 +13100,13 @@
         <v>9820043</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>238</v>
+        <v>371</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -13043,13 +13126,13 @@
         <v>9828563</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -13069,13 +13152,13 @@
         <v>9859008</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -13095,13 +13178,13 @@
         <v>9887331</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>289</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -13121,13 +13204,13 @@
         <v>9893082</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17">
-        <v>309</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -13147,13 +13230,13 @@
         <v>9982312</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>348</v>
+        <v>138</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -13173,13 +13256,13 @@
         <v>10021333</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>371</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -13199,13 +13282,13 @@
         <v>10048959</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>384</v>
+        <v>142</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -13225,13 +13308,13 @@
         <v>10054518</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -13251,13 +13334,13 @@
         <v>10065473</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
-        <v>400</v>
+        <v>214</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -13277,13 +13360,13 @@
         <v>10077919</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>423</v>
+        <v>516</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -13303,13 +13386,13 @@
         <v>10081586</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>516</v>
+        <v>231</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -13329,13 +13412,13 @@
         <v>10082816</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25">
-        <v>526</v>
+        <v>242</v>
       </c>
       <c r="E25">
         <v>5</v>
@@ -13355,13 +13438,13 @@
         <v>10086216</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26">
-        <v>531</v>
+        <v>289</v>
       </c>
       <c r="E26">
         <v>5</v>
@@ -13377,6 +13460,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H26">
+    <sortCondition ref="B2:B26"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -13385,7 +13471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -13420,13 +13508,13 @@
         <v>9714274</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>316</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -13446,13 +13534,13 @@
         <v>9727486</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>73</v>
+        <v>293</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -13472,13 +13560,13 @@
         <v>9753496</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -13498,13 +13586,13 @@
         <v>9776358</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>177</v>
+        <v>341</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -13524,13 +13612,13 @@
         <v>9777327</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>180</v>
+        <v>419</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -13550,13 +13638,13 @@
         <v>9779289</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>185</v>
+        <v>319</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -13576,13 +13664,13 @@
         <v>9785590</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>204</v>
+        <v>529</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -13602,13 +13690,13 @@
         <v>9788648</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>213</v>
+        <v>359</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -13628,13 +13716,13 @@
         <v>9818643</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -13654,13 +13742,13 @@
         <v>9823127</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>241</v>
+        <v>349</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -13680,13 +13768,13 @@
         <v>9828852</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E12">
         <v>6</v>
@@ -13706,13 +13794,13 @@
         <v>9845465</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -13732,13 +13820,13 @@
         <v>9851490</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>262</v>
+        <v>185</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -13758,13 +13846,13 @@
         <v>9888418</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -13784,13 +13872,13 @@
         <v>9889357</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>296</v>
+        <v>213</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -13810,13 +13898,13 @@
         <v>9890932</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17">
-        <v>299</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>6</v>
@@ -13836,13 +13924,13 @@
         <v>9893671</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>316</v>
+        <v>177</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -13862,13 +13950,13 @@
         <v>9893952</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -13888,13 +13976,13 @@
         <v>9893958</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>320</v>
+        <v>429</v>
       </c>
       <c r="E20">
         <v>6</v>
@@ -13914,13 +14002,13 @@
         <v>9946686</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>341</v>
+        <v>123</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -13940,13 +14028,13 @@
         <v>9982344</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
-        <v>349</v>
+        <v>545</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -13966,13 +14054,13 @@
         <v>9990453</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>359</v>
+        <v>204</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -13992,13 +14080,13 @@
         <v>10061542</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>394</v>
+        <v>243</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -14018,13 +14106,13 @@
         <v>10077909</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25">
-        <v>419</v>
+        <v>299</v>
       </c>
       <c r="E25">
         <v>6</v>
@@ -14044,13 +14132,13 @@
         <v>10077937</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26">
-        <v>429</v>
+        <v>535</v>
       </c>
       <c r="E26">
         <v>6</v>
@@ -14070,13 +14158,13 @@
         <v>10085527</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27">
-        <v>529</v>
+        <v>320</v>
       </c>
       <c r="E27">
         <v>6</v>
@@ -14096,13 +14184,13 @@
         <v>10086681</v>
       </c>
       <c r="B28" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28">
-        <v>535</v>
+        <v>236</v>
       </c>
       <c r="E28">
         <v>6</v>
@@ -14122,13 +14210,13 @@
         <v>10086956</v>
       </c>
       <c r="B29" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
       <c r="D29">
-        <v>545</v>
+        <v>394</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -14144,6 +14232,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H29">
+    <sortCondition ref="B2:B29"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -14152,7 +14243,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -14859,6 +14952,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H27">
+    <sortCondition ref="C2:C27"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -14867,7 +14963,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -14902,13 +15000,13 @@
         <v>9714279</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>311</v>
       </c>
       <c r="E2">
         <v>8</v>
@@ -14954,13 +15052,13 @@
         <v>9715001</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -14980,13 +15078,13 @@
         <v>9715192</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>322</v>
       </c>
       <c r="E5">
         <v>8</v>
@@ -15006,13 +15104,13 @@
         <v>9716267</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -15032,13 +15130,13 @@
         <v>9717474</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>8</v>
@@ -15058,13 +15156,13 @@
         <v>9719242</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -15084,13 +15182,13 @@
         <v>9721132</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>65</v>
+        <v>272</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -15110,13 +15208,13 @@
         <v>9728903</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -15136,13 +15234,13 @@
         <v>9738323</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>87</v>
+        <v>340</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -15162,13 +15260,13 @@
         <v>9741780</v>
       </c>
       <c r="B12" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -15188,13 +15286,13 @@
         <v>9770037</v>
       </c>
       <c r="B13" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>165</v>
+        <v>276</v>
       </c>
       <c r="E13">
         <v>8</v>
@@ -15214,13 +15312,13 @@
         <v>9776455</v>
       </c>
       <c r="B14" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>178</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>8</v>
@@ -15240,13 +15338,13 @@
         <v>9777315</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="E15">
         <v>8</v>
@@ -15266,13 +15364,13 @@
         <v>9780677</v>
       </c>
       <c r="B16" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="E16">
         <v>8</v>
@@ -15292,13 +15390,13 @@
         <v>9789386</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -15318,13 +15416,13 @@
         <v>9794427</v>
       </c>
       <c r="B18" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -15344,13 +15442,13 @@
         <v>9803398</v>
       </c>
       <c r="B19" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>227</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>8</v>
@@ -15370,13 +15468,13 @@
         <v>9816786</v>
       </c>
       <c r="B20" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>234</v>
+        <v>89</v>
       </c>
       <c r="E20">
         <v>8</v>
@@ -15396,13 +15494,13 @@
         <v>9872469</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="E21">
         <v>8</v>
@@ -15422,13 +15520,13 @@
         <v>9875299</v>
       </c>
       <c r="B22" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
-        <v>276</v>
+        <v>40</v>
       </c>
       <c r="E22">
         <v>8</v>
@@ -15448,13 +15546,13 @@
         <v>9892633</v>
       </c>
       <c r="B23" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>306</v>
+        <v>165</v>
       </c>
       <c r="E23">
         <v>8</v>
@@ -15500,13 +15598,13 @@
         <v>9893120</v>
       </c>
       <c r="B25" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25">
-        <v>311</v>
+        <v>217</v>
       </c>
       <c r="E25">
         <v>8</v>
@@ -15526,13 +15624,13 @@
         <v>9893775</v>
       </c>
       <c r="B26" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26">
-        <v>318</v>
+        <v>179</v>
       </c>
       <c r="E26">
         <v>8</v>
@@ -15552,13 +15650,13 @@
         <v>9894910</v>
       </c>
       <c r="B27" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27">
-        <v>322</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <v>8</v>
@@ -15578,13 +15676,13 @@
         <v>9924793</v>
       </c>
       <c r="B28" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="E28">
         <v>8</v>
@@ -15600,6 +15698,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H28">
+    <sortCondition ref="B2:B28"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -15608,7 +15709,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -15643,13 +15746,13 @@
         <v>9714347</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E2">
         <v>9</v>
@@ -15669,13 +15772,13 @@
         <v>9714452</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="E3">
         <v>9</v>
@@ -15695,13 +15798,13 @@
         <v>9734333</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <v>9</v>
@@ -15721,13 +15824,13 @@
         <v>9734548</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="E5">
         <v>9</v>
@@ -15747,13 +15850,13 @@
         <v>9738074</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E6">
         <v>9</v>
@@ -15773,13 +15876,13 @@
         <v>9742148</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>90</v>
+        <v>365</v>
       </c>
       <c r="E7">
         <v>9</v>
@@ -15799,13 +15902,13 @@
         <v>9742297</v>
       </c>
       <c r="B8" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E8">
         <v>9</v>
@@ -15825,13 +15928,13 @@
         <v>9744429</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="E9">
         <v>9</v>
@@ -15851,13 +15954,13 @@
         <v>9746121</v>
       </c>
       <c r="B10" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>96</v>
+        <v>329</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -15877,13 +15980,13 @@
         <v>9746275</v>
       </c>
       <c r="B11" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>373</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -15903,13 +16006,13 @@
         <v>9749881</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -15929,13 +16032,13 @@
         <v>9750526</v>
       </c>
       <c r="B13" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="E13">
         <v>9</v>
@@ -15955,13 +16058,13 @@
         <v>9751400</v>
       </c>
       <c r="B14" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="E14">
         <v>9</v>
@@ -15981,13 +16084,13 @@
         <v>9767166</v>
       </c>
       <c r="B15" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>152</v>
+        <v>487</v>
       </c>
       <c r="E15">
         <v>9</v>
@@ -16007,13 +16110,13 @@
         <v>9767572</v>
       </c>
       <c r="B16" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>155</v>
+        <v>375</v>
       </c>
       <c r="E16">
         <v>9</v>
@@ -16059,13 +16162,13 @@
         <v>9774535</v>
       </c>
       <c r="B18" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>9</v>
@@ -16085,13 +16188,13 @@
         <v>9774823</v>
       </c>
       <c r="B19" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="E19">
         <v>9</v>
@@ -16111,13 +16214,13 @@
         <v>9781661</v>
       </c>
       <c r="B20" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="E20">
         <v>9</v>
@@ -16137,13 +16240,13 @@
         <v>9783725</v>
       </c>
       <c r="B21" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="E21">
         <v>9</v>
@@ -16163,13 +16266,13 @@
         <v>9794660</v>
       </c>
       <c r="B22" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>9</v>
@@ -16189,13 +16292,13 @@
         <v>9861354</v>
       </c>
       <c r="B23" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="E23">
         <v>9</v>
@@ -16215,13 +16318,13 @@
         <v>9911764</v>
       </c>
       <c r="B24" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>329</v>
+        <v>171</v>
       </c>
       <c r="E24">
         <v>9</v>
@@ -16241,13 +16344,13 @@
         <v>10009140</v>
       </c>
       <c r="B25" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25">
-        <v>365</v>
+        <v>90</v>
       </c>
       <c r="E25">
         <v>9</v>
@@ -16267,13 +16370,13 @@
         <v>10021447</v>
       </c>
       <c r="B26" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26">
-        <v>373</v>
+        <v>269</v>
       </c>
       <c r="E26">
         <v>9</v>
@@ -16293,13 +16396,13 @@
         <v>10021504</v>
       </c>
       <c r="B27" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27">
-        <v>375</v>
+        <v>86</v>
       </c>
       <c r="E27">
         <v>9</v>
@@ -16319,13 +16422,13 @@
         <v>10080130</v>
       </c>
       <c r="B28" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28">
-        <v>446</v>
+        <v>92</v>
       </c>
       <c r="E28">
         <v>9</v>
@@ -16345,13 +16448,13 @@
         <v>10080667</v>
       </c>
       <c r="B29" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
       </c>
       <c r="D29">
-        <v>487</v>
+        <v>219</v>
       </c>
       <c r="E29">
         <v>9</v>
@@ -16367,6 +16470,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H29">
+    <sortCondition ref="B2:B29"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/sortedByRCGroup.xlsx
+++ b/sortedByRCGroup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mannb\source\repos\recruitment_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AA0CD8-911E-45D6-AA64-949E8D8E438B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A2104F-784A-4873-B063-59F29ADAAE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12771" yWindow="0" windowWidth="13029" windowHeight="16509" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7197,7 +7197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -7209,7 +7209,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7514,8 +7513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A356F6-E45F-4ABA-99ED-5DC1C3A16524}">
   <dimension ref="A1:HH519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" zoomScale="211" workbookViewId="0">
-      <selection activeCell="A387" sqref="A387:XFD387"/>
+    <sheetView tabSelected="1" topLeftCell="A284" zoomScale="211" workbookViewId="0">
+      <selection activeCell="B300" sqref="B300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9400,238 +9399,30 @@
       </c>
     </row>
     <row r="33" spans="1:216" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A33">
+      <c r="A33" s="3">
         <v>9714792</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="5">
         <v>45792.493750000001</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <v>5</v>
       </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
-      <c r="AH33" s="6"/>
-      <c r="AI33" s="6"/>
-      <c r="AJ33" s="6"/>
-      <c r="AK33" s="6"/>
-      <c r="AL33" s="6"/>
-      <c r="AM33" s="6"/>
-      <c r="AN33" s="6"/>
-      <c r="AO33" s="6"/>
-      <c r="AP33" s="6"/>
-      <c r="AQ33" s="6"/>
-      <c r="AR33" s="6"/>
-      <c r="AS33" s="6"/>
-      <c r="AT33" s="6"/>
-      <c r="AU33" s="6"/>
-      <c r="AV33" s="6"/>
-      <c r="AW33" s="6"/>
-      <c r="AX33" s="6"/>
-      <c r="AY33" s="6"/>
-      <c r="AZ33" s="6"/>
-      <c r="BA33" s="6"/>
-      <c r="BB33" s="6"/>
-      <c r="BC33" s="6"/>
-      <c r="BD33" s="6"/>
-      <c r="BE33" s="6"/>
-      <c r="BF33" s="6"/>
-      <c r="BG33" s="6"/>
-      <c r="BH33" s="6"/>
-      <c r="BI33" s="6"/>
-      <c r="BJ33" s="6"/>
-      <c r="BK33" s="6"/>
-      <c r="BL33" s="6"/>
-      <c r="BM33" s="6"/>
-      <c r="BN33" s="6"/>
-      <c r="BO33" s="6"/>
-      <c r="BP33" s="6"/>
-      <c r="BQ33" s="6"/>
-      <c r="BR33" s="6"/>
-      <c r="BS33" s="6"/>
-      <c r="BT33" s="6"/>
-      <c r="BU33" s="6"/>
-      <c r="BV33" s="6"/>
-      <c r="BW33" s="6"/>
-      <c r="BX33" s="6"/>
-      <c r="BY33" s="6"/>
-      <c r="BZ33" s="6"/>
-      <c r="CA33" s="6"/>
-      <c r="CB33" s="6"/>
-      <c r="CC33" s="6"/>
-      <c r="CD33" s="6"/>
-      <c r="CE33" s="6"/>
-      <c r="CF33" s="6"/>
-      <c r="CG33" s="6"/>
-      <c r="CH33" s="6"/>
-      <c r="CI33" s="6"/>
-      <c r="CJ33" s="6"/>
-      <c r="CK33" s="6"/>
-      <c r="CL33" s="6"/>
-      <c r="CM33" s="6"/>
-      <c r="CN33" s="6"/>
-      <c r="CO33" s="6"/>
-      <c r="CP33" s="6"/>
-      <c r="CQ33" s="6"/>
-      <c r="CR33" s="6"/>
-      <c r="CS33" s="6"/>
-      <c r="CT33" s="6"/>
-      <c r="CU33" s="6"/>
-      <c r="CV33" s="6"/>
-      <c r="CW33" s="6"/>
-      <c r="CX33" s="6"/>
-      <c r="CY33" s="6"/>
-      <c r="CZ33" s="6"/>
-      <c r="DA33" s="6"/>
-      <c r="DB33" s="6"/>
-      <c r="DC33" s="6"/>
-      <c r="DD33" s="6"/>
-      <c r="DE33" s="6"/>
-      <c r="DF33" s="6"/>
-      <c r="DG33" s="6"/>
-      <c r="DH33" s="6"/>
-      <c r="DI33" s="6"/>
-      <c r="DJ33" s="6"/>
-      <c r="DK33" s="6"/>
-      <c r="DL33" s="6"/>
-      <c r="DM33" s="6"/>
-      <c r="DN33" s="6"/>
-      <c r="DO33" s="6"/>
-      <c r="DP33" s="6"/>
-      <c r="DQ33" s="6"/>
-      <c r="DR33" s="6"/>
-      <c r="DS33" s="6"/>
-      <c r="DT33" s="6"/>
-      <c r="DU33" s="6"/>
-      <c r="DV33" s="6"/>
-      <c r="DW33" s="6"/>
-      <c r="DX33" s="6"/>
-      <c r="DY33" s="6"/>
-      <c r="DZ33" s="6"/>
-      <c r="EA33" s="6"/>
-      <c r="EB33" s="6"/>
-      <c r="EC33" s="6"/>
-      <c r="ED33" s="6"/>
-      <c r="EE33" s="6"/>
-      <c r="EF33" s="6"/>
-      <c r="EG33" s="6"/>
-      <c r="EH33" s="6"/>
-      <c r="EI33" s="6"/>
-      <c r="EJ33" s="6"/>
-      <c r="EK33" s="6"/>
-      <c r="EL33" s="6"/>
-      <c r="EM33" s="6"/>
-      <c r="EN33" s="6"/>
-      <c r="EO33" s="6"/>
-      <c r="EP33" s="6"/>
-      <c r="EQ33" s="6"/>
-      <c r="ER33" s="6"/>
-      <c r="ES33" s="6"/>
-      <c r="ET33" s="6"/>
-      <c r="EU33" s="6"/>
-      <c r="EV33" s="6"/>
-      <c r="EW33" s="6"/>
-      <c r="EX33" s="6"/>
-      <c r="EY33" s="6"/>
-      <c r="EZ33" s="6"/>
-      <c r="FA33" s="6"/>
-      <c r="FB33" s="6"/>
-      <c r="FC33" s="6"/>
-      <c r="FD33" s="6"/>
-      <c r="FE33" s="6"/>
-      <c r="FF33" s="6"/>
-      <c r="FG33" s="6"/>
-      <c r="FH33" s="6"/>
-      <c r="FI33" s="6"/>
-      <c r="FJ33" s="6"/>
-      <c r="FK33" s="6"/>
-      <c r="FL33" s="6"/>
-      <c r="FM33" s="6"/>
-      <c r="FN33" s="6"/>
-      <c r="FO33" s="6"/>
-      <c r="FP33" s="6"/>
-      <c r="FQ33" s="6"/>
-      <c r="FR33" s="6"/>
-      <c r="FS33" s="6"/>
-      <c r="FT33" s="6"/>
-      <c r="FU33" s="6"/>
-      <c r="FV33" s="6"/>
-      <c r="FW33" s="6"/>
-      <c r="FX33" s="6"/>
-      <c r="FY33" s="6"/>
-      <c r="FZ33" s="6"/>
-      <c r="GA33" s="6"/>
-      <c r="GB33" s="6"/>
-      <c r="GC33" s="6"/>
-      <c r="GD33" s="6"/>
-      <c r="GE33" s="6"/>
-      <c r="GF33" s="6"/>
-      <c r="GG33" s="6"/>
-      <c r="GH33" s="6"/>
-      <c r="GI33" s="6"/>
-      <c r="GJ33" s="6"/>
-      <c r="GK33" s="6"/>
-      <c r="GL33" s="6"/>
-      <c r="GM33" s="6"/>
-      <c r="GN33" s="6"/>
-      <c r="GO33" s="6"/>
-      <c r="GP33" s="6"/>
-      <c r="GQ33" s="6"/>
-      <c r="GR33" s="6"/>
-      <c r="GS33" s="6"/>
-      <c r="GT33" s="6"/>
-      <c r="GU33" s="6"/>
-      <c r="GV33" s="6"/>
-      <c r="GW33" s="6"/>
-      <c r="GX33" s="6"/>
-      <c r="GY33" s="6"/>
-      <c r="GZ33" s="6"/>
-      <c r="HA33" s="6"/>
-      <c r="HB33" s="6"/>
-      <c r="HC33" s="6"/>
-      <c r="HD33" s="6"/>
-      <c r="HE33" s="6"/>
-      <c r="HF33" s="6"/>
-      <c r="HG33" s="6"/>
-      <c r="HH33" s="6"/>
     </row>
     <row r="34" spans="1:216" x14ac:dyDescent="0.4">
       <c r="A34">
@@ -12074,29 +11865,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:216" x14ac:dyDescent="0.4">
-      <c r="A72">
+    <row r="72" spans="1:216" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="3">
         <v>9727644</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="3">
         <v>74</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="5">
         <v>45812.854166666664</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="3">
         <v>5</v>
       </c>
     </row>
@@ -16777,55 +16568,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:216" x14ac:dyDescent="0.4">
-      <c r="A149">
+    <row r="149" spans="1:216" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="3">
         <v>9767166</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="3">
         <v>152</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="3" t="s">
         <v>1409</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="3" t="s">
         <v>1410</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="3" t="s">
         <v>1411</v>
       </c>
-      <c r="G149" s="4">
+      <c r="G149" s="5">
         <v>45847.59097222222</v>
       </c>
-      <c r="H149">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="150" spans="1:216" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="6">
+      <c r="H149" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:216" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="3">
         <v>9767196</v>
       </c>
-      <c r="B150" s="6">
+      <c r="B150" s="3">
         <v>153</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="C150" s="3" t="s">
         <v>1314</v>
       </c>
-      <c r="D150" s="6" t="s">
+      <c r="D150" s="3" t="s">
         <v>1672</v>
       </c>
-      <c r="E150" s="6" t="s">
+      <c r="E150" s="3" t="s">
         <v>1673</v>
       </c>
-      <c r="F150" s="6" t="s">
+      <c r="F150" s="3" t="s">
         <v>1674</v>
       </c>
-      <c r="G150" s="7">
+      <c r="G150" s="5">
         <v>45847.609027777777</v>
       </c>
-      <c r="H150" s="6">
+      <c r="H150" s="3">
         <v>12</v>
       </c>
     </row>
@@ -27784,55 +27575,55 @@
         <v>18</v>
       </c>
     </row>
-    <row r="389" spans="1:216" x14ac:dyDescent="0.4">
-      <c r="A389">
+    <row r="389" spans="1:216" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A389" s="3">
         <v>10077258</v>
       </c>
-      <c r="B389">
+      <c r="B389" s="3">
         <v>409</v>
       </c>
-      <c r="C389" t="s">
+      <c r="C389" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="D389" t="s">
+      <c r="D389" s="3" t="s">
         <v>1749</v>
       </c>
-      <c r="E389" t="s">
+      <c r="E389" s="3" t="s">
         <v>2011</v>
       </c>
-      <c r="F389" t="s">
+      <c r="F389" s="3" t="s">
         <v>2012</v>
       </c>
-      <c r="G389" s="4">
+      <c r="G389" s="5">
         <v>45921.751388888886</v>
       </c>
-      <c r="H389">
+      <c r="H389" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="390" spans="1:216" x14ac:dyDescent="0.4">
-      <c r="A390">
+    <row r="390" spans="1:216" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A390" s="3">
         <v>10077461</v>
       </c>
-      <c r="B390">
+      <c r="B390" s="3">
         <v>410</v>
       </c>
-      <c r="C390" t="s">
+      <c r="C390" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="D390" t="s">
+      <c r="D390" s="3" t="s">
         <v>1823</v>
       </c>
-      <c r="E390" t="s">
+      <c r="E390" s="3" t="s">
         <v>1824</v>
       </c>
-      <c r="F390" t="s">
+      <c r="F390" s="3" t="s">
         <v>1825</v>
       </c>
-      <c r="G390" s="4">
+      <c r="G390" s="5">
         <v>45921.987500000003</v>
       </c>
-      <c r="H390">
+      <c r="H390" s="3">
         <v>14</v>
       </c>
     </row>
